--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3246644.332753486</v>
+        <v>3243772.996026807</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.47859852115155</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.478598521151547</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,37 +756,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>13.35464426286299</v>
       </c>
       <c r="X3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>15.16194852731947</v>
@@ -829,61 +829,61 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>13.35464426286299</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,58 +1054,58 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13.58434214447045</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>47.98931541825772</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>104.0154267588401</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="H8" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092867</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>84.74074214747546</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="C9" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>91.61678788918637</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398453</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.64397637520238</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>68.98239880211312</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>29.26067025836907</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707394</v>
+        <v>22.63438908707379</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187849</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>151.5133592021556</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135.0949745400652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="C2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E2" t="n">
         <v>23.47355615393395</v>
@@ -4331,28 +4331,28 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>16.22328492423183</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="L2" t="n">
-        <v>31.23361396627811</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="M2" t="n">
-        <v>46.24394300832439</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="N2" t="n">
-        <v>60.64779410927788</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="O2" t="n">
-        <v>60.64779410927788</v>
+        <v>40.47666674974103</v>
       </c>
       <c r="P2" t="n">
-        <v>60.64779410927788</v>
+        <v>55.48699579178731</v>
       </c>
       <c r="Q2" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S2" t="n">
         <v>45.33269458673296</v>
@@ -4361,19 +4361,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="V2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="W2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="X2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>16.52805540473048</v>
       </c>
       <c r="D3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
@@ -4413,16 +4413,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M3" t="n">
         <v>16.22328492423183</v>
       </c>
       <c r="N3" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O3" t="n">
-        <v>45.6374650672316</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="P3" t="n">
         <v>45.6374650672316</v>
@@ -4434,19 +4434,19 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W3" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X3" t="n">
         <v>31.8431549272754</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
@@ -4495,13 +4495,13 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N4" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O4" t="n">
-        <v>60.64779410927788</v>
+        <v>55.78032168160431</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
@@ -4510,28 +4510,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="V4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="W4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E5" t="n">
         <v>30.01759506418804</v>
@@ -4574,13 +4574,13 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
-        <v>16.22328492423183</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N5" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O5" t="n">
-        <v>46.24394300832439</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P5" t="n">
         <v>60.64779410927788</v>
@@ -4589,13 +4589,13 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U5" t="n">
         <v>45.33269458673296</v>
@@ -4604,13 +4604,13 @@
         <v>45.33269458673296</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C6" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D6" t="n">
         <v>1.212955882185558</v>
@@ -4656,10 +4656,10 @@
         <v>22.52990524122875</v>
       </c>
       <c r="N6" t="n">
-        <v>22.52990524122875</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O6" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P6" t="n">
         <v>45.6374650672316</v>
@@ -4671,25 +4671,25 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S6" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T6" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U6" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V6" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W6" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X6" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="C7" t="n">
-        <v>31.61113686504564</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="D7" t="n">
-        <v>16.29603734250072</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="E7" t="n">
-        <v>16.29603734250072</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="F7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
@@ -4732,7 +4732,7 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N7" t="n">
         <v>40.76999263955803</v>
@@ -4744,31 +4744,31 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S7" t="n">
-        <v>46.92623638759056</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="U7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="C8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="D8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="E8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="F8" t="n">
-        <v>323.5194970462833</v>
+        <v>113.3873217758999</v>
       </c>
       <c r="G8" t="n">
-        <v>218.4534094110913</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="H8" t="n">
-        <v>113.3873217758993</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="I8" t="n">
-        <v>8.32123414070721</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2965066319589</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="K8" t="n">
-        <v>181.4453714793752</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="L8" t="n">
-        <v>212.2687450356064</v>
+        <v>77.96579297250913</v>
       </c>
       <c r="M8" t="n">
-        <v>278.2351245892756</v>
+        <v>143.932172526179</v>
       </c>
       <c r="N8" t="n">
-        <v>349.8827175086826</v>
+        <v>246.9074450174313</v>
       </c>
       <c r="O8" t="n">
-        <v>404.2022465684902</v>
+        <v>301.2269740772396</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353605</v>
+        <v>313.0864345441105</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353605</v>
+        <v>416.0617070353628</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243214</v>
+        <v>416.0617070353628</v>
       </c>
       <c r="S8" t="n">
-        <v>371.9935530243214</v>
+        <v>330.4649977954886</v>
       </c>
       <c r="T8" t="n">
-        <v>371.9935530243214</v>
+        <v>225.398910160296</v>
       </c>
       <c r="U8" t="n">
-        <v>371.9935530243214</v>
+        <v>225.398910160296</v>
       </c>
       <c r="V8" t="n">
-        <v>371.9935530243214</v>
+        <v>225.398910160296</v>
       </c>
       <c r="W8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="X8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.9935530243214</v>
+        <v>120.3328225251034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416.0617070353605</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="C9" t="n">
-        <v>310.9956194001684</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="D9" t="n">
-        <v>310.9956194001684</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="E9" t="n">
-        <v>218.4534094110913</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3873217758993</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="G9" t="n">
-        <v>8.32123414070721</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="H9" t="n">
-        <v>8.32123414070721</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="I9" t="n">
-        <v>8.32123414070721</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="J9" t="n">
-        <v>8.32123414070721</v>
+        <v>34.13631189120248</v>
       </c>
       <c r="K9" t="n">
-        <v>16.52325184929701</v>
+        <v>42.33832959979265</v>
       </c>
       <c r="L9" t="n">
-        <v>73.87441800550347</v>
+        <v>99.68949575599959</v>
       </c>
       <c r="M9" t="n">
-        <v>160.1573920023143</v>
+        <v>202.6647682472519</v>
       </c>
       <c r="N9" t="n">
-        <v>263.132664493566</v>
+        <v>305.6400407385042</v>
       </c>
       <c r="O9" t="n">
-        <v>335.1151257719293</v>
+        <v>377.6225020168681</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5543307904237</v>
+        <v>416.0617070353628</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353605</v>
+        <v>416.0617070353628</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353605</v>
+        <v>371.6447257081057</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353605</v>
+        <v>323.5194970462852</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353605</v>
+        <v>323.5194970462852</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353605</v>
+        <v>218.4534094110925</v>
       </c>
       <c r="V9" t="n">
-        <v>416.0617070353605</v>
+        <v>218.4534094110925</v>
       </c>
       <c r="W9" t="n">
-        <v>416.0617070353605</v>
+        <v>218.4534094110925</v>
       </c>
       <c r="X9" t="n">
-        <v>416.0617070353605</v>
+        <v>113.3873217758999</v>
       </c>
       <c r="Y9" t="n">
-        <v>416.0617070353605</v>
+        <v>113.3873217758999</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.1986877554878</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="C10" t="n">
-        <v>393.1986877554878</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="D10" t="n">
-        <v>288.1326001202958</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="E10" t="n">
-        <v>288.1326001202958</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1326001202958</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="G10" t="n">
-        <v>183.0665124851037</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="H10" t="n">
-        <v>78.00042484991167</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="I10" t="n">
-        <v>48.44419226570048</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="J10" t="n">
-        <v>8.32123414070721</v>
+        <v>8.321234140707256</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437517</v>
+        <v>73.53581884437544</v>
       </c>
       <c r="L10" t="n">
-        <v>176.5110913356269</v>
+        <v>73.53581884437544</v>
       </c>
       <c r="M10" t="n">
-        <v>279.4863638268786</v>
+        <v>121.9661535639759</v>
       </c>
       <c r="N10" t="n">
-        <v>327.9166985464784</v>
+        <v>224.9414260552282</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464784</v>
+        <v>327.9166985464805</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353605</v>
+        <v>416.0617070353628</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.1986877554878</v>
+        <v>393.1986877554903</v>
       </c>
       <c r="R10" t="n">
-        <v>393.1986877554878</v>
+        <v>288.1326001202977</v>
       </c>
       <c r="S10" t="n">
-        <v>393.1986877554878</v>
+        <v>288.1326001202977</v>
       </c>
       <c r="T10" t="n">
-        <v>393.1986877554878</v>
+        <v>288.1326001202977</v>
       </c>
       <c r="U10" t="n">
-        <v>393.1986877554878</v>
+        <v>183.0665124851051</v>
       </c>
       <c r="V10" t="n">
-        <v>393.1986877554878</v>
+        <v>78.00042484991245</v>
       </c>
       <c r="W10" t="n">
-        <v>393.1986877554878</v>
+        <v>78.00042484991245</v>
       </c>
       <c r="X10" t="n">
-        <v>393.1986877554878</v>
+        <v>78.00042484991245</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.1986877554878</v>
+        <v>78.00042484991245</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5176,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5264,10 +5264,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,10 +5355,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
         <v>352.5519571452614</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5789,7 +5789,7 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6224,25 +6224,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615996</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
@@ -6461,13 +6461,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6503,10 +6503,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6683,10 +6683,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,16 +6968,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,31 +7181,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>636.6680198981029</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>467.731836970196</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283426</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7418,19 +7418,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7979,25 +7979,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>217.342912363454</v>
+        <v>211.5173807891274</v>
       </c>
       <c r="L2" t="n">
-        <v>228.7108053025997</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7868673978199</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>218.8410770746053</v>
+        <v>219.453681055507</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664799</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,19 +8061,19 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3604083836059</v>
       </c>
       <c r="M3" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>126.9119083523187</v>
+        <v>126.2993043714169</v>
       </c>
       <c r="O3" t="n">
-        <v>139.2229632339716</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q3" t="n">
         <v>145.5280738211766</v>
@@ -8143,16 +8143,16 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M4" t="n">
-        <v>144.1881980719757</v>
+        <v>138.658955275242</v>
       </c>
       <c r="N4" t="n">
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.0794803480808</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8222,16 +8222,16 @@
         <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>220.1742634169181</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>225.5367078675721</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8304,13 +8304,13 @@
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>119.9289808188948</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8526396814495</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
-        <v>134.7518686851471</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>145.5280738211766</v>
@@ -8380,10 +8380,10 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
-        <v>144.1881980719757</v>
+        <v>138.658955275242</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6541045944249</v>
+        <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
         <v>144.6920843289826</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.5136528228966</v>
+        <v>37.4982260640561</v>
       </c>
       <c r="K8" t="n">
-        <v>75.80653116621302</v>
+        <v>4.94909192639804</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.21331846017172</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>31.64412077964101</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.66341988424267</v>
+        <v>143.678846643083</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437073</v>
+        <v>67.41744888598186</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16.86090757014233</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.40503239934441</v>
+        <v>24.4682887175898</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206123</v>
+        <v>22.09222636177185</v>
       </c>
       <c r="M10" t="n">
-        <v>124.017386934808</v>
+        <v>68.92149019576601</v>
       </c>
       <c r="N10" t="n">
-        <v>60.50899343486739</v>
+        <v>115.6048901739101</v>
       </c>
       <c r="O10" t="n">
-        <v>31.22301690678592</v>
+        <v>135.2384436656263</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-2.740697135224892e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.323759351730497e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>74.1962961868816</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8997516911001</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694003.8812816654</v>
+        <v>694003.8812816655</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>694003.8812816653</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210057</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366691</v>
+        <v>357912.3110366702</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724493</v>
+        <v>1080121.758724492</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860482037</v>
+        <v>3967.03286048198</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.0156590938</v>
+        <v>22488.015659094</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175748</v>
+        <v>266322.5358175747</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162409</v>
+        <v>310629.0408162406</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.25639174434</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744311</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744353</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744315</v>
+        <v>8727.256391744271</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744304</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744279</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744242</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136613</v>
+        <v>49123.28007136619</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259092.9526027374</v>
+        <v>259092.9526027375</v>
       </c>
       <c r="C6" t="n">
-        <v>297921.0123843972</v>
+        <v>297921.012384397</v>
       </c>
       <c r="D6" t="n">
-        <v>21272.96095357845</v>
+        <v>21272.96095357776</v>
       </c>
       <c r="E6" t="n">
-        <v>-463539.6052191395</v>
+        <v>-463574.343144574</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053537</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.153505354</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.153505354</v>
+        <v>616547.4155799187</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799187</v>
       </c>
       <c r="J6" t="n">
-        <v>612615.1206448722</v>
+        <v>612580.3827194365</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053538</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="L6" t="n">
-        <v>594094.1378462602</v>
+        <v>594059.3999208247</v>
       </c>
       <c r="M6" t="n">
-        <v>350259.6176877792</v>
+        <v>350224.8797623437</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.153505354</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.1535053544</v>
+        <v>616547.4155799188</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053541</v>
+        <v>616547.4155799182</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>6.632408907794991e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.632408907794991e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.230444731564992e-14</v>
-      </c>
       <c r="K2" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875526</v>
+        <v>420.7129414875536</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588401</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>6.632408907794991e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684273</v>
+        <v>385.6916807684283</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541212</v>
+        <v>947.2625588541201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823152065</v>
+        <v>88.85347823152124</v>
       </c>
       <c r="E4" t="n">
         <v>1068.692861340808</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731951</v>
+        <v>15.16194852731928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152088</v>
+        <v>88.85347823152146</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340808</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.632408907794991e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.431426819679991e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152065</v>
+        <v>88.85347823152124</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340808</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.5210930933635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.4517715511103</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>244.8557912676597</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>312.5903099428155</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>71.64112869536794</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27521,7 +27521,7 @@
         <v>238.3403388980566</v>
       </c>
       <c r="X3" t="n">
-        <v>190.611036676158</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5207472499849</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7658777380392</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>212.5138049577163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>272.9609403794588</v>
       </c>
       <c r="V4" t="n">
-        <v>236.9756947965085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5477068617177</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.0003112076243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7684215449423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>393.5214014788485</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27670,13 +27670,13 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>236.1724412614918</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>334.0790201900936</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.1785393870043</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.5465504609963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2831170373193</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27743,7 +27743,7 @@
         <v>80.3188953730601</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27752,13 +27752,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>192.4183409406145</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.0848725713084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>132.0664037600683</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>209.3316697154762</v>
+        <v>207.7540633326271</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>212.5138049577163</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>358.8867303234537</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>309.5960024488073</v>
+        <v>309.5960024488067</v>
       </c>
       <c r="H8" t="n">
-        <v>218.1382641528691</v>
+        <v>322.1536909117092</v>
       </c>
       <c r="I8" t="n">
-        <v>41.25629928714821</v>
+        <v>145.2717260459881</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.6274724709284</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293705</v>
+        <v>85.73863938189498</v>
       </c>
       <c r="T8" t="n">
-        <v>215.6921474481042</v>
+        <v>111.6767206892634</v>
       </c>
       <c r="U8" t="n">
         <v>251.2103482432375</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>245.2255419585723</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>62.51775689102664</v>
       </c>
       <c r="C9" t="n">
-        <v>68.69307222947562</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>66.02829256621457</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>41.05378563454376</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>32.42316068117087</v>
+        <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255947</v>
+        <v>103.4957282255946</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125198</v>
+        <v>58.24006124125191</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398467</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>107.2305220192035</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8818472307643</v>
+        <v>121.8664204719236</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>101.7575584446368</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>110.8495813798242</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>44.60004625937223</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>63.21688991824765</v>
+        <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>51.4665448178646</v>
+        <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3747487600233</v>
+        <v>132.6354190183923</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.7217285437432</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493427</v>
+        <v>39.16573169050191</v>
       </c>
       <c r="S10" t="n">
         <v>210.7951765807159</v>
@@ -28065,10 +28065,10 @@
         <v>224.7040306987872</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2776477556889</v>
+        <v>182.2622209968481</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>148.1222165649873</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>1.680967726822736e-12</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.351419346738509e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487647</v>
+        <v>1.691308307487651</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405787</v>
+        <v>17.32111120405791</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441758</v>
+        <v>65.20416352441775</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626298</v>
+        <v>143.5476784626302</v>
       </c>
       <c r="K8" t="n">
-        <v>215.140759118582</v>
+        <v>215.1407591185825</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338571</v>
+        <v>266.9011357338578</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471406</v>
+        <v>296.9789398471413</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757899</v>
+        <v>301.7843695757906</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932096</v>
+        <v>284.9664225932103</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521082</v>
+        <v>243.2122487521088</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902068</v>
+        <v>182.6422699902072</v>
       </c>
       <c r="R8" t="n">
-        <v>106.241645470221</v>
+        <v>106.2416454702213</v>
       </c>
       <c r="S8" t="n">
-        <v>38.5406880568748</v>
+        <v>38.5406880568749</v>
       </c>
       <c r="T8" t="n">
-        <v>7.40370211602718</v>
+        <v>7.403702116027199</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990117</v>
+        <v>0.1353046645990121</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996415</v>
+        <v>0.9049297231996437</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901802</v>
+        <v>8.739716010901823</v>
       </c>
       <c r="I9" t="n">
-        <v>31.1565716101631</v>
+        <v>31.15657161016317</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229596</v>
+        <v>85.49601389229618</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466719</v>
+        <v>146.1263053466723</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447292</v>
+        <v>196.4848506447297</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107161</v>
+        <v>229.2885531107167</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421734</v>
+        <v>235.357138842174</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912761</v>
+        <v>215.3058012912766</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309912</v>
+        <v>172.8018872309916</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684314</v>
+        <v>115.5134853684317</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865846</v>
+        <v>56.1850226386586</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943192</v>
+        <v>16.80867270943197</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896799</v>
+        <v>3.647501822896808</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050275</v>
+        <v>0.05953485021050289</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709964</v>
+        <v>0.7586626813709982</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734864</v>
+        <v>6.74520093073488</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886597</v>
+        <v>22.81505590886603</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292944</v>
+        <v>53.63745157292957</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837575</v>
+        <v>88.14280970837596</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194662</v>
+        <v>112.7924499194664</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716372</v>
+        <v>118.9238237716375</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501636</v>
+        <v>116.0960810501638</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450569</v>
+        <v>107.2335215450571</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508847</v>
+        <v>91.7568028450887</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462044</v>
+        <v>63.52765416462059</v>
       </c>
       <c r="R10" t="n">
-        <v>34.1122329278268</v>
+        <v>34.11223292782687</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625636</v>
+        <v>13.22142145625639</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494256</v>
+        <v>3.241558729494264</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0413816008020544</v>
+        <v>0.0413816008020545</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>9.336416952992847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="N2" t="n">
-        <v>14.54934454641767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.54934454641767</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>15.16194852731947</v>
@@ -34863,16 +34863,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M4" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="N4" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="N5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>8.179020993895534</v>
       </c>
       <c r="O6" t="n">
-        <v>8.179020993895534</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>15.16194852731947</v>
@@ -35100,10 +35100,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
+        <v>9.632705730585775</v>
+      </c>
+      <c r="N7" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.632705730585775</v>
       </c>
       <c r="O7" t="n">
         <v>15.16194852731947</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.85743923981447</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386989</v>
+        <v>70.3480392240423</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986783</v>
+        <v>66.63270661986857</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919895</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152286</v>
+        <v>54.86821117152354</v>
       </c>
       <c r="P8" t="n">
-        <v>11.97925299683868</v>
+        <v>11.97925299683928</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>26.07583611161134</v>
       </c>
       <c r="K9" t="n">
-        <v>8.284866372312933</v>
+        <v>8.284866372313303</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485501</v>
+        <v>57.93047086485549</v>
       </c>
       <c r="M9" t="n">
-        <v>87.1545191886978</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588401</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683165</v>
+        <v>72.70955684683219</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666097</v>
+        <v>38.82747981666137</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.93674368175432</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.8733178824929</v>
+        <v>65.87331788249311</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588401</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>104.0154267588401</v>
+        <v>48.91953001979841</v>
       </c>
       <c r="N10" t="n">
-        <v>48.91953001979776</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>104.0154267588407</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998196</v>
+        <v>89.03536210998219</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
